--- a/src/dd_properties/testdata.xlsx
+++ b/src/dd_properties/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>hello world</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,9 +486,27 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/dd_properties/testdata.xlsx
+++ b/src/dd_properties/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,7 +426,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -434,7 +434,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/src/dd_properties/testdata.xlsx
+++ b/src/dd_properties/testdata.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
-    <sheet name="SendAndReceiveEmail" sheetId="3" r:id="rId2"/>
-    <sheet name="LoginTest" sheetId="2" r:id="rId3"/>
+    <sheet name="SendAndReceiveEmails" sheetId="3" r:id="rId2"/>
+    <sheet name="SendAndReceiveEmail" sheetId="4" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -77,6 +78,21 @@
   </si>
   <si>
     <t>hello world</t>
+  </si>
+  <si>
+    <t>Attach</t>
+  </si>
+  <si>
+    <t>testsendFile</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bubbl\\Desktop\\mvn.png</t>
+  </si>
+  <si>
+    <t>C:\Users\bubbl\Desktop\mvn.png</t>
   </si>
 </sst>
 </file>
@@ -407,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -434,7 +450,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -444,15 +460,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +488,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,8 +508,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -501,6 +527,29 @@
       </c>
       <c r="E3" t="s">
         <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -513,6 +562,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
